--- a/Jogos_da_Semana_FlashScore_2025-03-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-18.xlsx
@@ -693,7 +693,7 @@
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>
@@ -708,10 +708,10 @@
         <v>1.75</v>
       </c>
       <c r="S2" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T2" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U2" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-18.xlsx
@@ -702,16 +702,16 @@
         <v>3.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S2" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T2" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U2" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-18.xlsx
@@ -675,94 +675,94 @@
         <v>3.1</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I2" t="n">
         <v>2.2</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L2" t="n">
         <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="P2" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="R2" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="S2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U2" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="X2" t="n">
         <v>1.8</v>
       </c>
-      <c r="X2" t="n">
-        <v>1.95</v>
-      </c>
       <c r="Y2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z2" t="n">
         <v>15</v>
       </c>
       <c r="AA2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB2" t="n">
         <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE2" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF2" t="n">
         <v>6.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH2" t="n">
         <v>51</v>
       </c>
       <c r="AI2" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL2" t="n">
         <v>9.5</v>
@@ -771,10 +771,10 @@
         <v>21</v>
       </c>
       <c r="AN2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-03-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-18.xlsx
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H2" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I2" t="n">
         <v>2.2</v>
@@ -684,7 +684,7 @@
         <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
         <v>3</v>
@@ -744,7 +744,7 @@
         <v>41</v>
       </c>
       <c r="AE2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF2" t="n">
         <v>6.5</v>
@@ -756,10 +756,10 @@
         <v>51</v>
       </c>
       <c r="AI2" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AJ2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AK2" t="n">
         <v>10</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-18.xlsx
@@ -672,19 +672,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J2" t="n">
         <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L2" t="n">
         <v>3</v>
@@ -696,16 +696,16 @@
         <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P2" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="R2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S2" t="n">
         <v>4</v>
@@ -744,7 +744,7 @@
         <v>41</v>
       </c>
       <c r="AE2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF2" t="n">
         <v>6.5</v>
@@ -756,10 +756,10 @@
         <v>51</v>
       </c>
       <c r="AI2" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AJ2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AK2" t="n">
         <v>10</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-18.xlsx
@@ -672,28 +672,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I2" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
         <v>2.05</v>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -702,16 +702,16 @@
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T2" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U2" t="n">
         <v>1.5</v>
@@ -732,13 +732,13 @@
         <v>15</v>
       </c>
       <c r="AA2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB2" t="n">
         <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD2" t="n">
         <v>41</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="AK2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL2" t="n">
         <v>9.5</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-18.xlsx
@@ -696,16 +696,16 @@
         <v>10</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R2" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S2" t="n">
         <v>3.75</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-18.xlsx
@@ -675,10 +675,10 @@
         <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J2" t="n">
         <v>3.75</v>
@@ -687,7 +687,7 @@
         <v>2.05</v>
       </c>
       <c r="L2" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
@@ -714,19 +714,19 @@
         <v>1.25</v>
       </c>
       <c r="U2" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W2" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="X2" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
         <v>15</v>
@@ -741,25 +741,25 @@
         <v>26</v>
       </c>
       <c r="AD2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF2" t="n">
         <v>6.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH2" t="n">
         <v>51</v>
       </c>
       <c r="AI2" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AJ2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AK2" t="n">
         <v>11</v>
@@ -771,10 +771,10 @@
         <v>21</v>
       </c>
       <c r="AN2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-03-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-18.xlsx
@@ -678,7 +678,7 @@
         <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J2" t="n">
         <v>3.75</v>
@@ -687,31 +687,31 @@
         <v>2.05</v>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P2" t="n">
         <v>3.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S2" t="n">
         <v>3.75</v>
       </c>
       <c r="T2" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U2" t="n">
         <v>1.44</v>
@@ -726,7 +726,7 @@
         <v>1.91</v>
       </c>
       <c r="Y2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z2" t="n">
         <v>15</v>
@@ -771,7 +771,7 @@
         <v>21</v>
       </c>
       <c r="AN2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO2" t="n">
         <v>29</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-18.xlsx
@@ -699,19 +699,19 @@
         <v>1.36</v>
       </c>
       <c r="P2" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
         <v>2.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S2" t="n">
         <v>3.75</v>
       </c>
       <c r="T2" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U2" t="n">
         <v>1.44</v>
@@ -774,7 +774,7 @@
         <v>21</v>
       </c>
       <c r="AO2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
